--- a/results/I3_N5_M3_T15_C150_DepCentral_s0_P6_res.xlsx
+++ b/results/I3_N5_M3_T15_C150_DepCentral_s0_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>836.5463077104566</v>
+        <v>296.5435359928049</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009999990463256836</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24.85630771045523</v>
+        <v>24.54353599280496</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>705.5200000000016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>106.17</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -780,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>11.43123270582124</v>
       </c>
     </row>
     <row r="4">
@@ -890,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.289999994750023</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>5.304320013412203</v>
       </c>
     </row>
     <row r="7">
@@ -914,7 +914,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>12.42095022666721</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -930,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>15</v>
+        <v>12.12249852767911</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>138.4050000000004</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>156.36</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>162.115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>164.315</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
@@ -1117,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>160.24</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
@@ -1128,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>204.4300000000001</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13">
@@ -1139,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>209.8400000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>213.8850000000002</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
@@ -1161,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>211.2050000000002</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
@@ -1172,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>220.3700000000001</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17">
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>93.02999999999935</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1194,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>87.77499999999935</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>97.16999999999935</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1216,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>85.99499999999935</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>97.73999999999934</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>108.515</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -1249,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>96.92</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -1260,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>106.645</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -1271,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>103.745</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>100.49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -1293,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>70.22999999999979</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
@@ -1304,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>80.22999999999978</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
@@ -1315,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>86.27499999999978</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30">
@@ -1326,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>87.40499999999977</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31">
@@ -1337,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>84.38999999999977</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32">
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>108.515</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33">
@@ -1359,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>96.92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34">
@@ -1370,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>106.645</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35">
@@ -1381,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>103.745</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36">
@@ -1392,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>100.49</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37">
@@ -1403,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>204.4300000000001</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38">
@@ -1414,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>209.8400000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
@@ -1425,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>213.8850000000002</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40">
@@ -1436,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>211.2050000000002</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41">
@@ -1447,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>220.3700000000001</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42">
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>138.4050000000004</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43">
@@ -1469,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>156.36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44">
@@ -1480,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>162.115</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45">
@@ -1491,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>164.315</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46">
@@ -1502,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>160.24</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1604,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>54.43000000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1615,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>59.84000000000015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1626,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>63.88500000000016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1637,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>61.20500000000015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1648,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>70.37000000000015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1670,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>6.359999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1681,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>12.115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1692,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>14.315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1703,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>10.24</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1860,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>6.515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1871,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>4.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1882,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1893,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1904,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1915,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1926,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1937,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -1948,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -1959,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -1970,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.99</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -1981,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.115</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -1992,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.205</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
@@ -2003,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>4.455</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -2014,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>6.025</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2028,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2053,105 +2053,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
